--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3416583.303519185</v>
+        <v>3415748.981103799</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1054013.060177524</v>
+        <v>1130750.97799007</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5788191.035267926</v>
+        <v>5777770.027793582</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>318.4464904190916</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>204.2315499279529</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -794,7 +794,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531638</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>58.3342579507882</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169129</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>387.9237459840447</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -907,7 +907,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>327.2232736849638</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>76.45806939971641</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1135,19 +1135,19 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>39.24792575444912</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>240.1994831966193</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>87.98777371944368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>385.2060804157309</v>
+        <v>388.6819640774814</v>
       </c>
       <c r="C11" t="n">
-        <v>385.1104573277489</v>
+        <v>207.6572719498764</v>
       </c>
       <c r="D11" t="n">
-        <v>379.5064031557563</v>
+        <v>382.9822868175069</v>
       </c>
       <c r="E11" t="n">
-        <v>389.2839258761585</v>
+        <v>392.7598095379091</v>
       </c>
       <c r="F11" t="n">
-        <v>395.9072204737356</v>
+        <v>399.3831041354862</v>
       </c>
       <c r="G11" t="n">
-        <v>383.7281138139824</v>
+        <v>387.203997475733</v>
       </c>
       <c r="H11" t="n">
-        <v>286.8865249464455</v>
+        <v>290.3624086081961</v>
       </c>
       <c r="I11" t="n">
-        <v>64.57535760398387</v>
+        <v>68.05124126573443</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>113.0153770017264</v>
+        <v>116.491260663477</v>
       </c>
       <c r="T11" t="n">
-        <v>70.28071764713131</v>
+        <v>202.5474154222466</v>
       </c>
       <c r="U11" t="n">
-        <v>233.5769993709713</v>
+        <v>237.0528830327219</v>
       </c>
       <c r="V11" t="n">
-        <v>325.4262916647704</v>
+        <v>328.902175326521</v>
       </c>
       <c r="W11" t="n">
-        <v>359.0098104040694</v>
+        <v>362.48569406582</v>
       </c>
       <c r="X11" t="n">
-        <v>375.7240764006233</v>
+        <v>379.1999600623739</v>
       </c>
       <c r="Y11" t="n">
-        <v>376.0144188692771</v>
+        <v>379.4903025310277</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.9098218779903</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>148.469551261787</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>102.7283588560439</v>
+        <v>141.8647031900006</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.5478108401515</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>148.1408833733489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>130.6743768522348</v>
       </c>
       <c r="I13" t="n">
-        <v>94.26969798460341</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>63.50710368924065</v>
+        <v>66.98298735099121</v>
       </c>
       <c r="S13" t="n">
-        <v>163.6149629867751</v>
+        <v>167.0908466485257</v>
       </c>
       <c r="T13" t="n">
-        <v>216.2403641809512</v>
+        <v>219.7162478427018</v>
       </c>
       <c r="U13" t="n">
-        <v>259.0572785272234</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>250.2340001577596</v>
+        <v>253.7098838195101</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>215.0475360667998</v>
+        <v>218.5234197285503</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>158.5738073281052</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>385.2060804157309</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C14" t="n">
-        <v>385.1104573277489</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D14" t="n">
-        <v>379.5064031557563</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>389.2839258761585</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F14" t="n">
-        <v>395.9072204737356</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>383.7281138139824</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8865249464455</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I14" t="n">
-        <v>64.57535760398387</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>113.0153770017264</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0715317604961</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U14" t="n">
-        <v>233.5769993709713</v>
+        <v>224.9909450967484</v>
       </c>
       <c r="V14" t="n">
-        <v>325.4262916647704</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
-        <v>359.0098104040694</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>375.7240764006233</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y14" t="n">
-        <v>247.223604755912</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164.9098218779903</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>148.469551261787</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D16" t="n">
-        <v>136.9868107782054</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E16" t="n">
-        <v>138.38881952825</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>142.071927178401</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G16" t="n">
-        <v>144.6649997115983</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>11.9465891583381</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>94.26969798460341</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>63.50710368924065</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>216.2403641809512</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
-        <v>215.0475360667998</v>
+        <v>36.45672715325036</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.5754541730092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>385.2060804157309</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C17" t="n">
-        <v>385.1104573277489</v>
+        <v>376.5244030535258</v>
       </c>
       <c r="D17" t="n">
-        <v>379.5064031557563</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>389.2839258761585</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F17" t="n">
-        <v>395.9072204737356</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
-        <v>383.7281138139824</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>286.8865249464455</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I17" t="n">
-        <v>64.57535760398387</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>113.0153770017264</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0715317604961</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U17" t="n">
-        <v>233.5769993709713</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V17" t="n">
-        <v>325.4262916647704</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W17" t="n">
-        <v>230.2189962907044</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>375.7240764006233</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y17" t="n">
-        <v>376.0144188692771</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D19" t="n">
-        <v>53.4358954133146</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>89.46941363771582</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.50710368924065</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S19" t="n">
-        <v>163.6149629867751</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>216.2403641809512</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>259.0572785272234</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V19" t="n">
-        <v>250.2340001577596</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W19" t="n">
-        <v>255.3660803941007</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>215.0475360667998</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.5754541730092</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>385.2060804157309</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C20" t="n">
-        <v>385.1104573277489</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D20" t="n">
-        <v>379.5064031557564</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>325.0684693667762</v>
+        <v>380.6978716019353</v>
       </c>
       <c r="F20" t="n">
-        <v>395.9072204737357</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G20" t="n">
-        <v>383.7281138139825</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>286.8865249464455</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>113.0153770017265</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0715317604961</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U20" t="n">
-        <v>233.5769993709713</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V20" t="n">
-        <v>325.4262916647705</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W20" t="n">
-        <v>359.0098104040695</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>375.7240764006233</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y20" t="n">
-        <v>376.0144188692772</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C22" t="n">
-        <v>148.469551261787</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>94.26969798460345</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>63.50710368924069</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S22" t="n">
-        <v>163.6149629867752</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>216.2403641809512</v>
+        <v>35.67878741662429</v>
       </c>
       <c r="U22" t="n">
-        <v>259.0572785272234</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V22" t="n">
-        <v>250.2340001577596</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W22" t="n">
-        <v>255.3660803941007</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X22" t="n">
-        <v>215.0475360667998</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.27210033993285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>385.2060804157309</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C23" t="n">
-        <v>385.1104573277489</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D23" t="n">
-        <v>379.5064031557564</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>260.4931117627925</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F23" t="n">
-        <v>395.9072204737357</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G23" t="n">
-        <v>383.7281138139825</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>286.8865249464455</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I23" t="n">
-        <v>64.57535760398392</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>113.0153770017265</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0715317604961</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U23" t="n">
-        <v>233.5769993709713</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V23" t="n">
-        <v>325.4262916647705</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W23" t="n">
-        <v>359.0098104040695</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>375.7240764006233</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y23" t="n">
-        <v>376.0144188692772</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>34.26125961770763</v>
       </c>
       <c r="C25" t="n">
-        <v>148.469551261787</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>142.071927178401</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>63.50710368924069</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S25" t="n">
-        <v>163.6149629867752</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>216.2403641809512</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
-        <v>21.95169550034946</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V25" t="n">
-        <v>250.2340001577596</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W25" t="n">
-        <v>255.3660803941007</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X25" t="n">
-        <v>215.0475360667998</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>201.5754541730093</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>27.82717575468171</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>241.6479458835353</v>
@@ -2778,10 +2778,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>20.78917772391618</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>388.6819640774815</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>388.5863409894995</v>
       </c>
       <c r="D29" t="n">
-        <v>370.920348881532</v>
+        <v>382.982286817507</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>392.7598095379092</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995113</v>
+        <v>399.3831041354862</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1420595397581</v>
+        <v>387.203997475733</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>290.3624086081961</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975957</v>
+        <v>68.05124126573449</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>116.4912606634771</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>202.5474154222467</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>237.0528830327219</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905461</v>
+        <v>328.902175326521</v>
       </c>
       <c r="W29" t="n">
-        <v>350.4237561298451</v>
+        <v>362.48569406582</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>198.2708910227506</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950528</v>
+        <v>379.4903025310277</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.64309870642131</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>141.8647031900007</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.5478108401516</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>148.1408833733489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.6743768522348</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.74558164635403</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>167.0908466485258</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>262.533162188974</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>133.6528446712196</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>218.5234197285504</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>205.0513378347599</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415066</v>
+        <v>388.6819640774815</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535246</v>
+        <v>388.5863409894995</v>
       </c>
       <c r="D32" t="n">
-        <v>370.920348881532</v>
+        <v>382.982286817507</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>392.7598095379092</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995113</v>
+        <v>218.4540350958627</v>
       </c>
       <c r="G32" t="n">
-        <v>375.1420595397581</v>
+        <v>387.203997475733</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722212</v>
+        <v>290.3624086081961</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975957</v>
+        <v>68.05124126573449</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275022</v>
+        <v>116.4912606634771</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>202.5474154222467</v>
       </c>
       <c r="U32" t="n">
-        <v>224.990945096747</v>
+        <v>237.0528830327219</v>
       </c>
       <c r="V32" t="n">
-        <v>316.8402373905461</v>
+        <v>328.902175326521</v>
       </c>
       <c r="W32" t="n">
-        <v>350.4237561298451</v>
+        <v>362.48569406582</v>
       </c>
       <c r="X32" t="n">
-        <v>367.138022126399</v>
+        <v>379.1999600623739</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950528</v>
+        <v>379.4903025310277</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>168.3857055397409</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.93768202657085</v>
       </c>
       <c r="D34" t="n">
-        <v>33.12209635668106</v>
+        <v>140.462694439956</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>148.1408833733489</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501635</v>
+        <v>66.98298735099127</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>167.0908466485258</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067269</v>
+        <v>219.7162478427018</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>262.533162188974</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>218.5234197285504</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>205.0513378347599</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415065</v>
+        <v>388.6819640774815</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535245</v>
+        <v>388.5863409894995</v>
       </c>
       <c r="D35" t="n">
-        <v>370.920348881532</v>
+        <v>382.982286817507</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019342</v>
+        <v>392.7598095379092</v>
       </c>
       <c r="F35" t="n">
-        <v>387.3211661995113</v>
+        <v>218.4540350958627</v>
       </c>
       <c r="G35" t="n">
-        <v>375.1420595397581</v>
+        <v>387.203997475733</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722211</v>
+        <v>290.3624086081961</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975954</v>
+        <v>68.05124126573449</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275021</v>
+        <v>116.4912606634771</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862717</v>
+        <v>202.5474154222467</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>237.0528830327219</v>
       </c>
       <c r="V35" t="n">
-        <v>316.8402373905461</v>
+        <v>328.902175326521</v>
       </c>
       <c r="W35" t="n">
-        <v>350.4237561298451</v>
+        <v>362.48569406582</v>
       </c>
       <c r="X35" t="n">
-        <v>367.1380221263989</v>
+        <v>379.1999600623739</v>
       </c>
       <c r="Y35" t="n">
-        <v>367.4283645950528</v>
+        <v>379.4903025310277</v>
       </c>
     </row>
     <row r="36">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>168.3857055397409</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875626</v>
+        <v>151.9454349235376</v>
       </c>
       <c r="D37" t="n">
-        <v>49.56236697288506</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>141.8647031900007</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>167.0908466485258</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>219.7162478427018</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>262.533162188974</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835352</v>
+        <v>75.39556475002799</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198763</v>
+        <v>258.8419640558513</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>205.0513378347599</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415065</v>
+        <v>388.6819640774815</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535245</v>
+        <v>388.5863409894995</v>
       </c>
       <c r="D38" t="n">
-        <v>370.920348881532</v>
+        <v>202.0532177778833</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019342</v>
+        <v>392.7598095379092</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995123</v>
+        <v>399.3831041354862</v>
       </c>
       <c r="G38" t="n">
-        <v>375.1420595397581</v>
+        <v>387.203997475733</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722211</v>
+        <v>290.3624086081961</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975954</v>
+        <v>68.05124126573449</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275021</v>
+        <v>116.4912606634771</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862717</v>
+        <v>202.5474154222467</v>
       </c>
       <c r="U38" t="n">
-        <v>224.990945096747</v>
+        <v>237.0528830327219</v>
       </c>
       <c r="V38" t="n">
-        <v>316.8402373905461</v>
+        <v>328.902175326521</v>
       </c>
       <c r="W38" t="n">
-        <v>350.4237561298451</v>
+        <v>362.48569406582</v>
       </c>
       <c r="X38" t="n">
-        <v>367.1380221263989</v>
+        <v>379.1999600623739</v>
       </c>
       <c r="Y38" t="n">
-        <v>367.4283645950528</v>
+        <v>379.4903025310277</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.3237676037659</v>
+        <v>168.3857055397409</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875626</v>
+        <v>151.9454349235376</v>
       </c>
       <c r="D40" t="n">
-        <v>5.083779998628674</v>
+        <v>140.462694439956</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.5478108401516</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>148.1408833733489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.6743768522348</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501631</v>
+        <v>66.98298735099127</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>167.0908466485258</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>59.36092345757243</v>
       </c>
       <c r="U40" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>253.7098838195102</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925754</v>
+        <v>218.5234197285504</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>356.8268763394486</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3751,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>100.8060303124224</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>83.7621739878562</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>273.1853517019089</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3.404215506192319</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>138.4216803124555</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1192.914471946194</v>
+        <v>269.5549845286463</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.830285299868</v>
+        <v>263.4707978823205</v>
       </c>
       <c r="D2" t="n">
-        <v>1186.406759433333</v>
+        <v>263.0472720157851</v>
       </c>
       <c r="E2" t="n">
-        <v>864.743637797887</v>
+        <v>252.7474605730859</v>
       </c>
       <c r="F2" t="n">
-        <v>443.7132257515746</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W2" t="n">
-        <v>1603.135651610684</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X2" t="n">
-        <v>1603.135651610684</v>
+        <v>1080.712837245046</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.135651610684</v>
+        <v>679.7761641931357</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
         <v>240.2510026593071</v>
@@ -4415,22 +4415,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
         <v>1207.227134123859</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>693.3871153509499</v>
+        <v>1437.475014334506</v>
       </c>
       <c r="C4" t="n">
-        <v>634.4636224713659</v>
+        <v>1266.381641896222</v>
       </c>
       <c r="D4" t="n">
-        <v>474.9689777942758</v>
+        <v>1106.886997219132</v>
       </c>
       <c r="E4" t="n">
-        <v>474.9689777942758</v>
+        <v>945.9761820874519</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>781.3450561980432</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>614.0946651235865</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T4" t="n">
-        <v>1246.342524902554</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U4" t="n">
-        <v>1246.342524902554</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V4" t="n">
-        <v>972.4567798420755</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W4" t="n">
-        <v>693.3871153509499</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X4" t="n">
-        <v>693.3871153509499</v>
+        <v>1849.910419339786</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.3871153509499</v>
+        <v>1625.17472072855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.869857010476</v>
+        <v>1696.412113819451</v>
       </c>
       <c r="C5" t="n">
-        <v>1195.78567036415</v>
+        <v>1286.287523132721</v>
       </c>
       <c r="D5" t="n">
-        <v>791.3217404572104</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E5" t="n">
-        <v>376.9815249741071</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F5" t="n">
         <v>46.45296569636579</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1208.050632634561</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>704.7239474634683</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>1738.409816796119</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.8119591581028</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>307.7185867198193</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>307.7185867198193</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>307.7185867198193</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
         <v>307.7185867198193</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1408.660890794825</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1408.660890794825</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1129.591226303699</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>891.2473641633825</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.5116655521472</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1126.269166274525</v>
+        <v>1331.59255336145</v>
       </c>
       <c r="C8" t="n">
-        <v>716.144575587795</v>
+        <v>1325.508366715124</v>
       </c>
       <c r="D8" t="n">
-        <v>715.7210497212595</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E8" t="n">
-        <v>301.3808342381562</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F8" t="n">
-        <v>284.3908262322478</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G8" t="n">
         <v>41.76508562960205</v>
@@ -4813,19 +4813,19 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1516.210242763442</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W8" t="n">
-        <v>1132.44994189861</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X8" t="n">
-        <v>1132.44994189861</v>
+        <v>1337.773328985535</v>
       </c>
       <c r="Y8" t="n">
-        <v>1132.44994189861</v>
+        <v>1337.773328985535</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>219.3581718355392</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.008892784822</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M9" t="n">
-        <v>1541.851827451147</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.851827451147</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.349712609228</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>472.349712609228</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>472.349712609228</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>472.349712609228</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
         <v>307.7185867198193</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1397.014724815302</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1397.014724815302</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1397.014724815302</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1123.128979754824</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>1123.128979754824</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>884.7851176145077</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>660.0494190032724</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2401.322488799523</v>
+        <v>2243.142808590059</v>
       </c>
       <c r="C11" t="n">
-        <v>2012.322026852302</v>
+        <v>2033.387988438669</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.982225684871</v>
+        <v>1646.537193673511</v>
       </c>
       <c r="E11" t="n">
-        <v>1235.766138941277</v>
+        <v>1249.810113332188</v>
       </c>
       <c r="F11" t="n">
-        <v>835.8598556344731</v>
+        <v>846.3928364276567</v>
       </c>
       <c r="G11" t="n">
-        <v>448.2557002668141</v>
+        <v>455.2776874622698</v>
       </c>
       <c r="H11" t="n">
-        <v>158.4713316340408</v>
+        <v>161.9823252317687</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4548.027938064749</v>
+        <v>4544.516944467022</v>
       </c>
       <c r="T11" t="n">
-        <v>4477.037314178758</v>
+        <v>4339.923595555661</v>
       </c>
       <c r="U11" t="n">
-        <v>4241.100951177777</v>
+        <v>4100.476238956952</v>
       </c>
       <c r="V11" t="n">
-        <v>3912.387525253766</v>
+        <v>3768.251819435214</v>
       </c>
       <c r="W11" t="n">
-        <v>3549.751353128443</v>
+        <v>3402.104653712163</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.232084036905</v>
+        <v>3019.074391022897</v>
       </c>
       <c r="Y11" t="n">
-        <v>2790.419539724503</v>
+        <v>2635.750853112768</v>
       </c>
     </row>
     <row r="12">
@@ -5126,22 +5126,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>562.1177108836107</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>442.2008775920715</v>
+        <v>665.1909444135883</v>
       </c>
       <c r="C13" t="n">
-        <v>292.2316338932968</v>
+        <v>665.1909444135883</v>
       </c>
       <c r="D13" t="n">
-        <v>292.2316338932968</v>
+        <v>665.1909444135883</v>
       </c>
       <c r="E13" t="n">
-        <v>188.4656148467878</v>
+        <v>521.8932644236887</v>
       </c>
       <c r="F13" t="n">
-        <v>188.4656148467878</v>
+        <v>374.8752736760609</v>
       </c>
       <c r="G13" t="n">
-        <v>188.4656148467878</v>
+        <v>225.2380177433852</v>
       </c>
       <c r="H13" t="n">
-        <v>188.4656148467878</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>128.0300056734259</v>
+        <v>124.5888808482928</v>
       </c>
       <c r="K13" t="n">
-        <v>303.2860919732564</v>
+        <v>296.4038423229903</v>
       </c>
       <c r="L13" t="n">
-        <v>583.8869508309095</v>
+        <v>573.5635763555103</v>
       </c>
       <c r="M13" t="n">
-        <v>893.8547658489954</v>
+        <v>880.0902665484631</v>
       </c>
       <c r="N13" t="n">
-        <v>1195.397306820838</v>
+        <v>1178.191682695173</v>
       </c>
       <c r="O13" t="n">
-        <v>1475.661675724905</v>
+        <v>1455.014926774106</v>
       </c>
       <c r="P13" t="n">
-        <v>1702.04087455211</v>
+        <v>1677.953000776178</v>
       </c>
       <c r="Q13" t="n">
-        <v>1788.272662932213</v>
+        <v>1760.743664331148</v>
       </c>
       <c r="R13" t="n">
-        <v>1724.124073347122</v>
+        <v>1693.084081148329</v>
       </c>
       <c r="S13" t="n">
-        <v>1558.856433966541</v>
+        <v>1524.30544817002</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.431823682751</v>
+        <v>1302.369844288503</v>
       </c>
       <c r="U13" t="n">
-        <v>1078.757804968384</v>
+        <v>1302.369844288503</v>
       </c>
       <c r="V13" t="n">
-        <v>825.996188647415</v>
+        <v>1046.097234369806</v>
       </c>
       <c r="W13" t="n">
-        <v>825.996188647415</v>
+        <v>1046.097234369806</v>
       </c>
       <c r="X13" t="n">
-        <v>608.7764552466072</v>
+        <v>825.3665073712704</v>
       </c>
       <c r="Y13" t="n">
-        <v>608.7764552466072</v>
+        <v>665.1909444135883</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2401.322488799523</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C14" t="n">
-        <v>2012.322026852302</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.982225684871</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1235.766138941277</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F14" t="n">
-        <v>835.8598556344731</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G14" t="n">
-        <v>448.2557002668141</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H14" t="n">
-        <v>158.4713316340408</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4548.027938064749</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>4346.945582751116</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>4111.009219750135</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V14" t="n">
-        <v>3782.295793826125</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W14" t="n">
-        <v>3419.659621700802</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X14" t="n">
-        <v>3040.140352609263</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2790.419539724503</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>563.2392029380319</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.216283632599</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>1406.216283632599</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
         <v>2110.173374178493</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>918.2925821362624</v>
+        <v>705.4317876121977</v>
       </c>
       <c r="C16" t="n">
-        <v>768.3233384374877</v>
+        <v>564.1353260085991</v>
       </c>
       <c r="D16" t="n">
-        <v>629.9528224999065</v>
+        <v>434.437592166194</v>
       </c>
       <c r="E16" t="n">
-        <v>490.1661361077347</v>
+        <v>434.437592166194</v>
       </c>
       <c r="F16" t="n">
-        <v>346.6591389578347</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="G16" t="n">
-        <v>200.5328766228869</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="H16" t="n">
-        <v>188.4656148467878</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>128.0300056734259</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K16" t="n">
-        <v>303.2860919732564</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L16" t="n">
-        <v>583.8869508309095</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M16" t="n">
-        <v>893.8547658489954</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N16" t="n">
-        <v>1195.397306820838</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O16" t="n">
-        <v>1475.661675724905</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P16" t="n">
-        <v>1702.04087455211</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q16" t="n">
-        <v>1788.272662932213</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1724.124073347122</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1724.124073347122</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T16" t="n">
-        <v>1505.699463063332</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U16" t="n">
-        <v>1505.699463063332</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V16" t="n">
-        <v>1505.699463063332</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.699463063332</v>
+        <v>900.1595600940323</v>
       </c>
       <c r="X16" t="n">
-        <v>1288.479729662525</v>
+        <v>863.3345831715571</v>
       </c>
       <c r="Y16" t="n">
-        <v>1084.868159790798</v>
+        <v>863.3345831715571</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2401.322488799523</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>2012.322026852302</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D17" t="n">
-        <v>1628.982225684871</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1235.766138941277</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F17" t="n">
-        <v>835.8598556344731</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G17" t="n">
-        <v>448.2557002668141</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H17" t="n">
-        <v>158.4713316340408</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4548.027938064749</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4346.945582751116</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4111.009219750135</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
-        <v>3782.295793826125</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3549.751353128443</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.232084036905</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y17" t="n">
-        <v>2790.419539724503</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>741.8628115185547</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
-        <v>1228.182536368609</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.2193496232638</v>
+        <v>585.724942522224</v>
       </c>
       <c r="C19" t="n">
-        <v>147.2193496232638</v>
+        <v>444.4284809186254</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>314.7307470762203</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>183.6168427792246</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>183.6168427792246</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>183.6168427792246</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5673,52 +5673,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>128.0300056734259</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K19" t="n">
-        <v>303.2860919732564</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L19" t="n">
-        <v>583.8869508309095</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M19" t="n">
-        <v>893.8547658489954</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N19" t="n">
-        <v>1195.397306820838</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O19" t="n">
-        <v>1475.661675724905</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P19" t="n">
-        <v>1702.04087455211</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q19" t="n">
-        <v>1788.272662932213</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1724.124073347122</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1558.856433966541</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.431823682751</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="U19" t="n">
-        <v>1078.757804968384</v>
+        <v>1391.202311389559</v>
       </c>
       <c r="V19" t="n">
-        <v>825.996188647415</v>
+        <v>1147.113477163766</v>
       </c>
       <c r="W19" t="n">
-        <v>568.0506528957982</v>
+        <v>1147.113477163766</v>
       </c>
       <c r="X19" t="n">
-        <v>350.8309194949903</v>
+        <v>938.5665258581338</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.2193496232638</v>
+        <v>743.6277380815834</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2271.230757371881</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1882.23029542466</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1498.890494257229</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E20" t="n">
-        <v>1170.538504997859</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F20" t="n">
-        <v>770.6322216910552</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G20" t="n">
-        <v>383.0280663233961</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4548.027938064749</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4346.945582751116</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4111.009219750135</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
-        <v>3782.295793826125</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3419.659621700802</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3040.140352609263</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2660.327808296862</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>674.809389578345</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>674.809389578345</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>674.809389578345</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1548.467481689963</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O21" t="n">
-        <v>1548.467481689963</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P21" t="n">
         <v>2110.173374178493</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>338.4348585455626</v>
+        <v>495.3517974336221</v>
       </c>
       <c r="C22" t="n">
-        <v>188.4656148467879</v>
+        <v>354.0553358300235</v>
       </c>
       <c r="D22" t="n">
-        <v>188.4656148467879</v>
+        <v>224.3576019876184</v>
       </c>
       <c r="E22" t="n">
-        <v>188.4656148467879</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>188.4656148467879</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>188.4656148467879</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>188.4656148467879</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>128.0300056734258</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K22" t="n">
-        <v>303.2860919732564</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L22" t="n">
-        <v>583.8869508309094</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M22" t="n">
-        <v>893.8547658489952</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N22" t="n">
-        <v>1195.397306820838</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O22" t="n">
-        <v>1475.661675724905</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P22" t="n">
-        <v>1702.040874552109</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q22" t="n">
-        <v>1788.272662932213</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1724.124073347121</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1558.85643396654</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.431823682751</v>
+        <v>1608.164368800038</v>
       </c>
       <c r="U22" t="n">
-        <v>1078.757804968384</v>
+        <v>1355.163132180847</v>
       </c>
       <c r="V22" t="n">
-        <v>825.9961886474146</v>
+        <v>1111.074297955054</v>
       </c>
       <c r="W22" t="n">
-        <v>568.0506528957976</v>
+        <v>861.8015442986133</v>
       </c>
       <c r="X22" t="n">
-        <v>350.8309194949898</v>
+        <v>653.2545929929815</v>
       </c>
       <c r="Y22" t="n">
-        <v>338.4348585455626</v>
+        <v>653.2545929929815</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2271.230757371881</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C23" t="n">
-        <v>1882.23029542466</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D23" t="n">
-        <v>1498.890494257229</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E23" t="n">
-        <v>1235.766138941277</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F23" t="n">
-        <v>835.8598556344732</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G23" t="n">
-        <v>448.2557002668142</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H23" t="n">
-        <v>158.4713316340409</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4548.027938064749</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4346.945582751116</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4111.009219750135</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
-        <v>3782.295793826125</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W23" t="n">
-        <v>3419.659621700802</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
-        <v>3040.140352609263</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y23" t="n">
-        <v>2660.327808296862</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>386.7199385392975</v>
+        <v>458.542774594982</v>
       </c>
       <c r="C25" t="n">
-        <v>236.7506948405228</v>
+        <v>317.2463129913834</v>
       </c>
       <c r="D25" t="n">
-        <v>236.7506948405228</v>
+        <v>317.2463129913834</v>
       </c>
       <c r="E25" t="n">
-        <v>236.7506948405228</v>
+        <v>317.2463129913834</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>317.2463129913834</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>128.0300056734258</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K25" t="n">
-        <v>303.2860919732564</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L25" t="n">
-        <v>583.8869508309094</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M25" t="n">
-        <v>893.8547658489952</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N25" t="n">
-        <v>1195.397306820838</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O25" t="n">
-        <v>1475.661675724905</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P25" t="n">
-        <v>1702.040874552109</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q25" t="n">
-        <v>1788.272662932213</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1724.124073347121</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1558.85643396654</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.431823682751</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U25" t="n">
-        <v>1318.258393884418</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.496777563449</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W25" t="n">
-        <v>807.5512418118319</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X25" t="n">
-        <v>590.3315084110241</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="Y25" t="n">
-        <v>386.7199385392975</v>
+        <v>493.1501075421614</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
         <v>1585.618315208991</v>
@@ -6214,10 +6214,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6256,10 +6256,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
         <v>3816.98692220683</v>
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>916.2303367455215</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>1789.888428857139</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>1789.888428857139</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>458.5427745949822</v>
+        <v>716.7351475493351</v>
       </c>
       <c r="C28" t="n">
-        <v>317.2463129913835</v>
+        <v>575.4386859457364</v>
       </c>
       <c r="D28" t="n">
-        <v>317.2463129913835</v>
+        <v>445.7409521033313</v>
       </c>
       <c r="E28" t="n">
-        <v>317.2463129913835</v>
+        <v>314.6270478063357</v>
       </c>
       <c r="F28" t="n">
-        <v>317.2463129913835</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G28" t="n">
         <v>179.7928327516118</v>
@@ -6411,25 +6411,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1772.690146956092</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1562.938318767479</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1562.938318767479</v>
       </c>
       <c r="V28" t="n">
-        <v>937.361648975152</v>
+        <v>1318.849484541686</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187111</v>
+        <v>1069.576730885245</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130794</v>
+        <v>1069.576730885245</v>
       </c>
       <c r="Y28" t="n">
-        <v>458.5427745949822</v>
+        <v>874.6379431086947</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.613014133291</v>
+        <v>2425.899443983618</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>2033.387988438669</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208991</v>
+        <v>1646.537193673511</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1249.810113332188</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489452</v>
+        <v>846.3928364276569</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764622</v>
+        <v>455.2776874622699</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>161.9823252317688</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159925</v>
+        <v>4544.516944467022</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4339.923595555661</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4100.476238956952</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3768.251819435214</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176683</v>
+        <v>3402.104653712163</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3201.831026416456</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2818.507488506327</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>754.331869609911</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N30" t="n">
-        <v>1627.989961721529</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O30" t="n">
-        <v>2110.173374178493</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>224.3576019876185</v>
+        <v>763.9238551674814</v>
       </c>
       <c r="C31" t="n">
-        <v>224.3576019876185</v>
+        <v>763.9238551674814</v>
       </c>
       <c r="D31" t="n">
-        <v>224.3576019876185</v>
+        <v>763.9238551674814</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>620.6261751775818</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>473.608184429954</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>323.9709284972782</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>191.9766084445158</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>124.5888808482928</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>296.4038423229902</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>573.5635763555101</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>880.0902665484628</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1178.191682695172</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1455.014926774106</v>
       </c>
       <c r="P31" t="n">
-        <v>1761.542230672484</v>
+        <v>1677.953000776178</v>
       </c>
       <c r="Q31" t="n">
-        <v>1856.27421278407</v>
+        <v>1760.743664331148</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1760.743664331148</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1591.965031352839</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1591.965031352839</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1326.780019040744</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>1191.777145635472</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>1191.777145635472</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130794</v>
+        <v>971.0464186369359</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365289</v>
+        <v>763.9238551674814</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.61301413329</v>
+        <v>2243.142808590059</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1850.63135304511</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1463.780558279952</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560572</v>
+        <v>1067.053477938629</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489446</v>
+        <v>846.3928364276569</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764616</v>
+        <v>455.2776874622699</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>161.9823252317688</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159924</v>
+        <v>4544.516944467022</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941468</v>
+        <v>4339.923595555661</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035664</v>
+        <v>4100.476238956952</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206829</v>
+        <v>3768.251819435214</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176682</v>
+        <v>3402.104653712163</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.17704518032</v>
+        <v>3019.074391022897</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963094</v>
+        <v>2635.750853112768</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>286.056555253256</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1159.714647364874</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.7003606771693</v>
+        <v>439.2449702561539</v>
       </c>
       <c r="C34" t="n">
-        <v>126.7003606771693</v>
+        <v>384.7624631586076</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8809536232985</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8809536232985</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8809536232985</v>
       </c>
       <c r="G34" t="n">
         <v>93.2436976906228</v>
@@ -6858,52 +6858,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>124.5888808482928</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362205</v>
+        <v>296.4038423229902</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253558</v>
+        <v>573.5635763555101</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749236</v>
+        <v>880.0902665484628</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478248</v>
+        <v>1178.191682695172</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113797</v>
+        <v>1455.014926774106</v>
       </c>
       <c r="P34" t="n">
-        <v>1761.542230672484</v>
+        <v>1677.953000776178</v>
       </c>
       <c r="Q34" t="n">
-        <v>1856.27421278407</v>
+        <v>1760.743664331148</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1693.084081148329</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1524.30544817002</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1302.369844288503</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200945</v>
+        <v>1037.184831976408</v>
       </c>
       <c r="V34" t="n">
-        <v>937.361648975152</v>
+        <v>1037.184831976408</v>
       </c>
       <c r="W34" t="n">
-        <v>688.0888953187111</v>
+        <v>1037.184831976408</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130794</v>
+        <v>816.4541049778719</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365289</v>
+        <v>609.3315415084174</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133291</v>
+        <v>2243.142808590059</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281245</v>
+        <v>1850.63135304511</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208991</v>
+        <v>1463.780558279952</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1067.053477938629</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489449</v>
+        <v>846.3928364276569</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764619</v>
+        <v>455.2776874622699</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>161.9823252317688</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159925</v>
+        <v>4544.516944467022</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941468</v>
+        <v>4339.923595555661</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035664</v>
+        <v>4100.476238956952</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.98692220683</v>
+        <v>3768.251819435214</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176683</v>
+        <v>3402.104653712163</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.17704518032</v>
+        <v>3019.074391022897</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963095</v>
+        <v>2635.750853112768</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>93.2436976906228</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N36" t="n">
-        <v>966.9017898022406</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>1198.623017005979</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>284.6031562365296</v>
+        <v>390.021614977025</v>
       </c>
       <c r="C37" t="n">
-        <v>143.3066946329309</v>
+        <v>236.5413776805224</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>236.5413776805224</v>
       </c>
       <c r="E37" t="n">
         <v>93.2436976906228</v>
@@ -7095,52 +7095,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.530199404908</v>
+        <v>124.5888808482928</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362206</v>
+        <v>296.4038423229902</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>573.5635763555101</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749237</v>
+        <v>880.0902665484628</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478249</v>
+        <v>1178.191682695172</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113798</v>
+        <v>1455.014926774106</v>
       </c>
       <c r="P37" t="n">
-        <v>1761.542230672484</v>
+        <v>1677.953000776178</v>
       </c>
       <c r="Q37" t="n">
-        <v>1856.27421278407</v>
+        <v>1760.743664331148</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1760.743664331148</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.20354800875</v>
+        <v>1591.965031352839</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820137</v>
+        <v>1370.029427471322</v>
       </c>
       <c r="U37" t="n">
-        <v>1181.450483200946</v>
+        <v>1104.844415159227</v>
       </c>
       <c r="V37" t="n">
-        <v>937.3616489751524</v>
+        <v>1028.687279048088</v>
       </c>
       <c r="W37" t="n">
-        <v>688.0888953187117</v>
+        <v>767.230749698743</v>
       </c>
       <c r="X37" t="n">
-        <v>479.54194401308</v>
+        <v>767.230749698743</v>
       </c>
       <c r="Y37" t="n">
-        <v>284.6031562365296</v>
+        <v>560.1081862292885</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.613014133291</v>
+        <v>2243.142808590059</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281246</v>
+        <v>1850.63135304511</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1646.537193673511</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560573</v>
+        <v>1249.810113332188</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489448</v>
+        <v>846.3928364276569</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764619</v>
+        <v>455.2776874622699</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388648</v>
+        <v>161.9823252317688</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159925</v>
+        <v>4544.516944467022</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4339.923595555661</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4100.476238956952</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.98692220683</v>
+        <v>3768.251819435214</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3402.104653712163</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3019.074391022897</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2635.750853112768</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
-        <v>1640.177868931084</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>370.7891949029632</v>
+        <v>817.2550112555006</v>
       </c>
       <c r="C40" t="n">
-        <v>229.4927332993646</v>
+        <v>663.7747739589979</v>
       </c>
       <c r="D40" t="n">
-        <v>224.3576019876185</v>
+        <v>521.8932644236888</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>521.8932644236888</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>374.875273676061</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>225.2380177433853</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7332,52 +7332,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>136.530199404908</v>
+        <v>124.5888808482928</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362206</v>
+        <v>296.4038423229902</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>573.5635763555101</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749237</v>
+        <v>880.0902665484628</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478249</v>
+        <v>1178.191682695172</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113798</v>
+        <v>1455.014926774106</v>
       </c>
       <c r="P40" t="n">
-        <v>1761.542230672484</v>
+        <v>1677.953000776178</v>
       </c>
       <c r="Q40" t="n">
-        <v>1856.27421278407</v>
+        <v>1760.743664331148</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1693.084081148329</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.20354800875</v>
+        <v>1524.30544817002</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820137</v>
+        <v>1464.344919424997</v>
       </c>
       <c r="U40" t="n">
-        <v>1181.450483200946</v>
+        <v>1464.344919424997</v>
       </c>
       <c r="V40" t="n">
-        <v>1181.450483200946</v>
+        <v>1208.0723095063</v>
       </c>
       <c r="W40" t="n">
-        <v>932.1777295445049</v>
+        <v>1208.0723095063</v>
       </c>
       <c r="X40" t="n">
-        <v>723.6307782388732</v>
+        <v>987.3415825077641</v>
       </c>
       <c r="Y40" t="n">
-        <v>528.6919904623228</v>
+        <v>987.3415825077641</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F41" t="n">
-        <v>588.3237444807176</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O42" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>687.8603028290196</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>687.8603028290196</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>687.8603028290196</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>526.949487697339</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>362.3183618079303</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>195.0679707334737</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>195.0679707334737</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W43" t="n">
-        <v>744.0229648362191</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X43" t="n">
-        <v>505.6791026959025</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="Y43" t="n">
-        <v>280.9434040846672</v>
+        <v>875.560009223064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2139.066799289355</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7678,22 +7678,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="45">
@@ -7733,16 +7733,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>741.8628115185547</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
         <v>2139.732893541123</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>871.7775684292137</v>
+        <v>694.9216971085323</v>
       </c>
       <c r="C46" t="n">
-        <v>700.6841959909302</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="D46" t="n">
-        <v>541.1895513138402</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="E46" t="n">
-        <v>380.2787361821597</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F46" t="n">
-        <v>376.8401346607533</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G46" t="n">
-        <v>209.5897435862967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
         <v>209.5897435862967</v>
@@ -7845,13 +7845,13 @@
         <v>1297.821136963575</v>
       </c>
       <c r="W46" t="n">
-        <v>1297.821136963575</v>
+        <v>1158.001257860084</v>
       </c>
       <c r="X46" t="n">
-        <v>1059.477274823258</v>
+        <v>919.6573957197676</v>
       </c>
       <c r="Y46" t="n">
-        <v>1059.477274823258</v>
+        <v>694.9216971085323</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595825</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>269.4773261669552</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8063,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>421.0562344946771</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>392.2643757374379</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>269.754811036119</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8303,22 +8303,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>266.8093398682837</v>
+        <v>564.2543476875383</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,22 +8461,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>594.2603172363632</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>230.7561945635728</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>394.1192645454833</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -8549,10 +8549,10 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8695,7 +8695,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,25 +8774,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>529.7246381472005</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>148.6536994294856</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -9008,25 +9008,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>336.0969962197136</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>204.0221919942796</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,22 +9248,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N18" t="n">
-        <v>544.4254386968355</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9482,22 +9482,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>448.5054134160184</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>767.5594446469316</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>529.7246381472005</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>888.8639191474061</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>544.8054309767314</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>450.431109631403</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>291.8133246603422</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10840,7 +10840,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>175.6243224406076</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
@@ -11153,7 +11153,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>743.7439864875635</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
@@ -11162,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,19 +11381,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>897.8036858523743</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>180.9290690396231</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>128.7908141133648</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>168.3857055397408</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>151.9454349235375</v>
       </c>
       <c r="D13" t="n">
-        <v>136.9868107782054</v>
+        <v>140.462694439956</v>
       </c>
       <c r="E13" t="n">
-        <v>35.66046067220614</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>142.071927178401</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>144.6649997115983</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>127.1984931904842</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.74558164635397</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>262.533162188974</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>255.3660803941007</v>
+        <v>258.8419640558512</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.5754541730092</v>
+        <v>46.47753050665463</v>
       </c>
     </row>
     <row r="14">
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>128.7908141133651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>115.2519040321461</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S16" t="n">
-        <v>163.6149629867751</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>259.0572785272234</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>250.2340001577596</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>255.3660803941007</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>170.004754639325</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>128.790814113365</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.9098218779903</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>148.469551261787</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.55091536489078</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>138.38881952825</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>142.071927178401</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G19" t="n">
-        <v>144.6649997115983</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>127.1984931904842</v>
+        <v>29.14302527854404</v>
       </c>
       <c r="I19" t="n">
-        <v>94.26969798460341</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>64.21545650938242</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>64.57535760398392</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.9098218779903</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>136.9868107782054</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>138.3888195282501</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>142.071927178401</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G22" t="n">
-        <v>144.6649997115983</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>127.1984931904842</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>171.9755224901026</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.3033538330764</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>128.7908141133661</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>164.9098218779903</v>
+        <v>122.0625079860583</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>136.9868107782054</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E25" t="n">
-        <v>138.3888195282501</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
-        <v>144.6649997115983</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>127.1984931904842</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>94.26969798460345</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>237.105583026874</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
         <v>118.6124389162599</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>127.2017329578691</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>172.2002221748688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>180.9290690396233</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.68066889734465</v>
+        <v>168.3857055397409</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>151.9454349235376</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>140.462694439956</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.98298735099127</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7162478427018</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>120.0570391482906</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>258.8419640558513</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>180.9290690396235</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>98.00775289696674</v>
       </c>
       <c r="D34" t="n">
-        <v>95.27866014730003</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>141.8647031900007</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>145.5478108401516</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>130.6743768522348</v>
       </c>
       <c r="I34" t="n">
-        <v>85.6836437103791</v>
+        <v>97.74558164635403</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>253.7098838195102</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>258.8419640558513</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>180.9290690396235</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>78.838389531096</v>
+        <v>140.462694439956</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041766</v>
+        <v>145.5478108401516</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>148.1408833733489</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>130.6743768522348</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037907</v>
+        <v>97.74558164635403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.98298735099127</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>178.3143190694822</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>218.5234197285504</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>180.9290690396237</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>123.3169765053524</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>141.8647031900007</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037907</v>
+        <v>97.74558164635403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>160.3553243851294</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>262.533162188974</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>258.8419640558513</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>205.0513378347599</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>49.19646844041398</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>14.37655512429473</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>192.5167938583581</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>159.5805991243223</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>137.8572875337589</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>492986.5935200413</v>
+        <v>488075.3667800386</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>492986.5935200413</v>
+        <v>505118.2018954062</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>492986.5935200413</v>
+        <v>505118.2018954062</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>492986.5935200411</v>
+        <v>505118.2018954062</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>492986.5935200412</v>
+        <v>505118.2018954062</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>505118.2018954062</v>
+        <v>488075.3667800385</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>505118.2018954062</v>
+        <v>488075.3667800384</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>505118.2018954062</v>
+        <v>488075.3667800384</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>505118.2018954062</v>
+        <v>488075.3667800385</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>463437.8680561499</v>
+        <v>463437.8680561498</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>463437.8680561498</v>
+        <v>463437.8680561499</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618953.0935233368</v>
+        <v>618953.0935233365</v>
       </c>
       <c r="C2" t="n">
         <v>618953.0935233363</v>
       </c>
       <c r="D2" t="n">
-        <v>618953.0935233366</v>
+        <v>618953.0935233365</v>
       </c>
       <c r="E2" t="n">
-        <v>585421.5798050493</v>
+        <v>579589.4980512962</v>
       </c>
       <c r="F2" t="n">
-        <v>585421.5798050491</v>
+        <v>599827.8647507951</v>
       </c>
       <c r="G2" t="n">
-        <v>585421.5798050493</v>
+        <v>599827.8647507947</v>
       </c>
       <c r="H2" t="n">
-        <v>585421.579805049</v>
+        <v>599827.8647507948</v>
       </c>
       <c r="I2" t="n">
-        <v>585421.5798050493</v>
+        <v>599827.8647507947</v>
       </c>
       <c r="J2" t="n">
         <v>599827.8647507948</v>
       </c>
       <c r="K2" t="n">
-        <v>599827.8647507948</v>
+        <v>579589.4980512961</v>
       </c>
       <c r="L2" t="n">
-        <v>599827.8647507947</v>
+        <v>579589.4980512962</v>
       </c>
       <c r="M2" t="n">
-        <v>599827.8647507947</v>
+        <v>579589.498051296</v>
       </c>
       <c r="N2" t="n">
-        <v>599827.8647507951</v>
+        <v>579589.4980512962</v>
       </c>
       <c r="O2" t="n">
-        <v>550332.4683166783</v>
+        <v>550332.4683166784</v>
       </c>
       <c r="P2" t="n">
-        <v>550332.4683166784</v>
+        <v>550332.4683166785</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>208860.0728611341</v>
+        <v>206079.3659317337</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9649.55034877994</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>160193.9541869654</v>
+        <v>150544.4038381854</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>155118.3712081971</v>
       </c>
       <c r="E4" t="n">
-        <v>21871.556916262</v>
+        <v>18359.01754560773</v>
       </c>
       <c r="F4" t="n">
-        <v>21871.556916262</v>
+        <v>30548.15734701363</v>
       </c>
       <c r="G4" t="n">
-        <v>21871.556916262</v>
+        <v>30548.15734701363</v>
       </c>
       <c r="H4" t="n">
-        <v>21871.55691626196</v>
+        <v>30548.15734701363</v>
       </c>
       <c r="I4" t="n">
-        <v>21871.55691626196</v>
+        <v>30548.15734701363</v>
       </c>
       <c r="J4" t="n">
         <v>30548.15734701357</v>
       </c>
       <c r="K4" t="n">
-        <v>30548.15734701357</v>
+        <v>18359.01754560767</v>
       </c>
       <c r="L4" t="n">
-        <v>30548.15734701357</v>
+        <v>18359.01754560767</v>
       </c>
       <c r="M4" t="n">
-        <v>30548.1573470136</v>
+        <v>18359.01754560767</v>
       </c>
       <c r="N4" t="n">
-        <v>30548.1573470136</v>
+        <v>18359.01754560767</v>
       </c>
       <c r="O4" t="n">
         <v>738.1279301446466</v>
@@ -26478,34 +26478,34 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>72623.33578008506</v>
+        <v>72331.12171652536</v>
       </c>
       <c r="F5" t="n">
-        <v>72623.33578008506</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="G5" t="n">
-        <v>72623.33578008506</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="H5" t="n">
-        <v>72623.33578008506</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="I5" t="n">
-        <v>72623.33578008506</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686482</v>
+        <v>72331.12171652535</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686482</v>
+        <v>72331.12171652535</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686484</v>
+        <v>72331.12171652535</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686484</v>
+        <v>72331.12171652535</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223510.1473435281</v>
+        <v>223510.1473435277</v>
       </c>
       <c r="C6" t="n">
         <v>398465.6572366417</v>
       </c>
       <c r="D6" t="n">
-        <v>398465.657236642</v>
+        <v>398465.6572366418</v>
       </c>
       <c r="E6" t="n">
-        <v>282066.6142475682</v>
+        <v>282716.4044482926</v>
       </c>
       <c r="F6" t="n">
-        <v>490926.687108702</v>
+        <v>486234.6707287353</v>
       </c>
       <c r="G6" t="n">
-        <v>490926.6871087023</v>
+        <v>495884.2210775149</v>
       </c>
       <c r="H6" t="n">
-        <v>490926.687108702</v>
+        <v>495884.221077515</v>
       </c>
       <c r="I6" t="n">
-        <v>490926.6871087023</v>
+        <v>495884.2210775149</v>
       </c>
       <c r="J6" t="n">
-        <v>335740.596439951</v>
+        <v>345339.8172393295</v>
       </c>
       <c r="K6" t="n">
-        <v>495934.5506269165</v>
+        <v>488795.7703800262</v>
       </c>
       <c r="L6" t="n">
-        <v>495934.5506269163</v>
+        <v>488795.7703800263</v>
       </c>
       <c r="M6" t="n">
-        <v>335576.1001262336</v>
+        <v>328437.3198793434</v>
       </c>
       <c r="N6" t="n">
-        <v>495934.5506269166</v>
+        <v>488795.7703800263</v>
       </c>
       <c r="O6" t="n">
-        <v>478729.1301416603</v>
+        <v>478548.5495490113</v>
       </c>
       <c r="P6" t="n">
-        <v>478729.1301416605</v>
+        <v>478548.5495490115</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="F2" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G2" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H2" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I2" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J2" t="n">
         <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="L2" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>12.06193793597492</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>12.06193793597492</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.75032290918068</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>212.5885579978964</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>111.0481807631125</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>93.42449318090661</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>18.19522188379983</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>89.59683424088547</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27669,10 +27669,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27779,16 +27779,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27830,16 +27830,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>203.5120965796207</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>361.1713648534209</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>164.4415180694768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27906,7 +27906,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>96.54007671944515</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -28070,13 +28070,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="C11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="D11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="E11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="F11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="G11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="H11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="I11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="T11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="U11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="V11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="W11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="X11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="C13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="D13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="E13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="F13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="G13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="H13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="I13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="J13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="K13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="L13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="M13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="N13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="O13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="P13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="R13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="S13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="T13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="U13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="V13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="W13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="X13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.91288745211369</v>
+        <v>17.43700379036313</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y17" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.91288745211369</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y20" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y23" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.91288745211366</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="26">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="C32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="D32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="E32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="F32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="G32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="H32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="I32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="T32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="U32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="V32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="W32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="X32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="C34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="D34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="E34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="F34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="G34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="H34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="I34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="J34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="K34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="L34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="M34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="N34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="O34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="P34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="R34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="S34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="T34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="U34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="V34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="W34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="X34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.498941726338</v>
+        <v>17.43700379036307</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633803</v>
+        <v>17.43700379036307</v>
       </c>
     </row>
     <row r="41">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967377</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
+        <v>176.5650354103359</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>367.8628411009271</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5650354103359</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35023,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>209.2450561298663</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>135.5987266329976</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>179.3869557635728</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>338.0047407346343</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35415,7 +35415,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>473.6101143363514</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>91.08941569106823</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>35.13768483111421</v>
+        <v>31.66180116936366</v>
       </c>
       <c r="K13" t="n">
-        <v>177.0263497978086</v>
+        <v>173.550466136058</v>
       </c>
       <c r="L13" t="n">
-        <v>283.4352109673264</v>
+        <v>279.9593273055758</v>
       </c>
       <c r="M13" t="n">
-        <v>313.0988030485715</v>
+        <v>309.622919386821</v>
       </c>
       <c r="N13" t="n">
-        <v>304.5884252240837</v>
+        <v>301.1125415623331</v>
       </c>
       <c r="O13" t="n">
-        <v>283.0953221253199</v>
+        <v>279.6194384635693</v>
       </c>
       <c r="P13" t="n">
-        <v>228.6658574012171</v>
+        <v>225.1899737394665</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.10281654555898</v>
+        <v>83.62693288380842</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35728,25 +35728,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>279.9824724088645</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35.13768483111421</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K16" t="n">
-        <v>177.0263497978086</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L16" t="n">
-        <v>283.4352109673264</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>313.0988030485715</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N16" t="n">
-        <v>304.5884252240837</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>283.0953221253199</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P16" t="n">
-        <v>228.6658574012171</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.10281654555898</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N18" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>35.13768483111421</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K19" t="n">
-        <v>177.0263497978086</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L19" t="n">
-        <v>283.4352109673264</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>313.0988030485715</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N19" t="n">
-        <v>304.5884252240837</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>283.0953221253199</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P19" t="n">
-        <v>228.6658574012171</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.10281654555898</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>392.679630631403</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>35.13768483111419</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K22" t="n">
-        <v>177.0263497978086</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L22" t="n">
-        <v>283.4352109673263</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>313.0988030485715</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N22" t="n">
-        <v>304.5884252240836</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>283.0953221253199</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P22" t="n">
-        <v>228.6658574012171</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.10281654555894</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N23" t="n">
         <v>760.7889056955737</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>473.6101143363514</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>35.13768483111419</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K25" t="n">
-        <v>177.0263497978086</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L25" t="n">
-        <v>283.4352109673263</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>313.0988030485715</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N25" t="n">
-        <v>304.5884252240836</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>283.0953221253199</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P25" t="n">
-        <v>228.6658574012171</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.10281654555894</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>831.2996354089887</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>487.0539519767314</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>31.6618011693636</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>173.550466136058</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415507</v>
+        <v>279.9593273055758</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>309.6229193868209</v>
       </c>
       <c r="N31" t="n">
-        <v>313.174479498308</v>
+        <v>301.112541562333</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>279.6194384635693</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754414</v>
+        <v>225.1899737394665</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>83.62693288380837</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>392.679630631403</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>31.6618011693636</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720329</v>
+        <v>173.550466136058</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415507</v>
+        <v>279.9593273055758</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227958</v>
+        <v>309.6229193868209</v>
       </c>
       <c r="N34" t="n">
-        <v>313.174479498308</v>
+        <v>301.112541562333</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995442</v>
+        <v>279.6194384635693</v>
       </c>
       <c r="P34" t="n">
-        <v>237.2519116754414</v>
+        <v>225.1899737394665</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978329</v>
+        <v>83.62693288380837</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
         <v>760.7889056955737</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>234.0618456603422</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533855</v>
+        <v>31.6618011693636</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>173.550466136058</v>
       </c>
       <c r="L37" t="n">
-        <v>292.0212652415507</v>
+        <v>279.9593273055758</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227959</v>
+        <v>309.6229193868209</v>
       </c>
       <c r="N37" t="n">
-        <v>313.174479498308</v>
+        <v>301.112541562333</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995443</v>
+        <v>279.6194384635693</v>
       </c>
       <c r="P37" t="n">
-        <v>237.2519116754414</v>
+        <v>225.1899737394665</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978332</v>
+        <v>83.62693288380837</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>121.3646874378038</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533855</v>
+        <v>31.6618011693636</v>
       </c>
       <c r="K40" t="n">
-        <v>185.6124040720329</v>
+        <v>173.550466136058</v>
       </c>
       <c r="L40" t="n">
-        <v>292.0212652415507</v>
+        <v>279.9593273055758</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227959</v>
+        <v>309.6229193868209</v>
       </c>
       <c r="N40" t="n">
-        <v>313.174479498308</v>
+        <v>301.112541562333</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995443</v>
+        <v>279.6194384635693</v>
       </c>
       <c r="P40" t="n">
-        <v>237.2519116754414</v>
+        <v>225.1899737394665</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978332</v>
+        <v>83.62693288380837</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
@@ -37873,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>685.9925074875634</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
@@ -37882,7 +37882,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>844.6102924586244</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
